--- a/data/trans_dic/P1426-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1426-Edad-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.001235035143384284</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.00300637298996205</v>
+        <v>0.003006372989962049</v>
       </c>
     </row>
     <row r="5">
@@ -701,20 +701,20 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.01213858949022377</v>
+        <v>0.01396395852158372</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.03747745353004521</v>
+        <v>0.03553143908280063</v>
       </c>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.006612513028804408</v>
+        <v>0.007053978132312457</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01311174817075436</v>
+        <v>0.01501409729442051</v>
       </c>
     </row>
     <row r="7">
@@ -764,29 +764,29 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.001347345927273294</v>
+        <v>0.001345707876717526</v>
       </c>
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.001542435742410304</v>
+        <v>0.001536879780366388</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.001633244393094133</v>
+        <v>0.001592812149704254</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.005061807449229836</v>
+        <v>0.005052470515533089</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.002850370319641608</v>
+        <v>0.002888722845869965</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0008009979578954139</v>
+        <v>0.0007809858410733423</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.003594405674586939</v>
+        <v>0.003689035871838429</v>
       </c>
     </row>
     <row r="9">
@@ -797,29 +797,29 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02213905361617277</v>
+        <v>0.01835369431512319</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.01409722640097203</v>
+        <v>0.01583179111246814</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02098445589008712</v>
+        <v>0.0176075085442291</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01713645821380744</v>
+        <v>0.01443003997296492</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02597933160076586</v>
+        <v>0.02620264972953196</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01400417747291295</v>
+        <v>0.01399526697623718</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.007734056701142333</v>
+        <v>0.00773831773866701</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01527071285113924</v>
+        <v>0.01486302114666107</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.005620989913401054</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.003153694226215012</v>
+        <v>0.003153694226215013</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.006948858571483158</v>
@@ -858,7 +858,7 @@
         <v>0.003486314247507532</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.009467741880432833</v>
+        <v>0.009467741880432831</v>
       </c>
     </row>
     <row r="11">
@@ -869,31 +869,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002685057201738643</v>
+        <v>0.00267980033574993</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007555256683064131</v>
+        <v>0.007182048817546024</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.001479830983948869</v>
+        <v>0.002407130021956868</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.001404337406196977</v>
+        <v>0.001458735362556154</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0007454803016754065</v>
+        <v>0.0007515699411945971</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.003368253778418119</v>
+        <v>0.003294684583277249</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.001384827205599218</v>
+        <v>0.00137140665796352</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.005337350494796355</v>
+        <v>0.004916094068004959</v>
       </c>
     </row>
     <row r="12">
@@ -904,31 +904,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0162038859528777</v>
+        <v>0.01670966714252725</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.006906262876149478</v>
+        <v>0.007111844188014896</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03047412632212755</v>
+        <v>0.02915464542416534</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01680927711342581</v>
+        <v>0.0169461673439062</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01280469910201271</v>
+        <v>0.01392095924756694</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.009298708258445941</v>
+        <v>0.009423977204811961</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01261362283077699</v>
+        <v>0.01265516779641603</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.007625051648552529</v>
+        <v>0.007610274270070493</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01704426239524681</v>
+        <v>0.01635986022744822</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.01142450058910292</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.0316779713037468</v>
+        <v>0.03167797130374679</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.01015295674439476</v>
@@ -978,31 +978,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.001692266023655529</v>
+        <v>0.001734821957610033</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.004826528779809022</v>
+        <v>0.004901075154759621</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02050531703357486</v>
+        <v>0.01962241173068474</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.004716542859648893</v>
+        <v>0.003713564487132479</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.001711621339817831</v>
+        <v>0.001662860798227289</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01491921650930726</v>
+        <v>0.01465886875943364</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.004206341781930576</v>
+        <v>0.004205501156305759</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.004866864758457998</v>
+        <v>0.004914315407677524</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.019589178583949</v>
+        <v>0.01947988430510294</v>
       </c>
     </row>
     <row r="15">
@@ -1013,31 +1013,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01539386682779297</v>
+        <v>0.01675467503448523</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02358941501507862</v>
+        <v>0.02263817018839008</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04761361631854568</v>
+        <v>0.04651797339163921</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02093303056207737</v>
+        <v>0.02188108991744309</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01704912400911899</v>
+        <v>0.01649099898434971</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03248895972023809</v>
+        <v>0.03306609673797631</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01493035132923959</v>
+        <v>0.01452859803569346</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01654859640127367</v>
+        <v>0.01584643881397843</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0355412726656635</v>
+        <v>0.03517785232816837</v>
       </c>
     </row>
     <row r="16">
@@ -1058,7 +1058,7 @@
         <v>0.02469921026660969</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.05549177356520765</v>
+        <v>0.05549177356520764</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.01396982057636133</v>
@@ -1076,7 +1076,7 @@
         <v>0.02642374897696421</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.04726186887892863</v>
+        <v>0.04726186887892862</v>
       </c>
     </row>
     <row r="17">
@@ -1087,31 +1087,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01277028616874437</v>
+        <v>0.01245282584162332</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01161637243194573</v>
+        <v>0.01164402725637538</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04086172648659184</v>
+        <v>0.04047902239160188</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.00480541833486123</v>
+        <v>0.004804464369194993</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01519655011750204</v>
+        <v>0.01535773273219283</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02795840371274219</v>
+        <v>0.02835832526631805</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01202225979529463</v>
+        <v>0.01110289633751251</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01644061543248323</v>
+        <v>0.01659947657389838</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03852418891440147</v>
+        <v>0.03766520569740838</v>
       </c>
     </row>
     <row r="18">
@@ -1122,31 +1122,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04498547052128765</v>
+        <v>0.04462321199896077</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04520537370793665</v>
+        <v>0.04505974892418198</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07311170211591854</v>
+        <v>0.07311293499810306</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03045169853336565</v>
+        <v>0.02837117093165742</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04561768479175195</v>
+        <v>0.04771778317118105</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05324964024828798</v>
+        <v>0.052391828714043</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03148372697169728</v>
+        <v>0.03004476757341688</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03990516280032378</v>
+        <v>0.04125137945706796</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05883827952314268</v>
+        <v>0.0577485957458249</v>
       </c>
     </row>
     <row r="19">
@@ -1167,7 +1167,7 @@
         <v>0.01783998580664709</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.08585920327772674</v>
+        <v>0.08585920327772673</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0.01946691097598075</v>
@@ -1176,7 +1176,7 @@
         <v>0.06503054283052837</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.06861949400357184</v>
+        <v>0.06861949400357183</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.03657598045594442</v>
@@ -1196,31 +1196,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02972492448229643</v>
+        <v>0.03302723013125081</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.006255262019325762</v>
+        <v>0.006008308218740256</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.06531597643303286</v>
+        <v>0.06701667483420305</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.008317875477292075</v>
+        <v>0.008237493494130776</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.04309487093673809</v>
+        <v>0.04431497224953391</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.05265651063792323</v>
+        <v>0.05263444891624337</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02280360159333071</v>
+        <v>0.02402531280640754</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02958377353600838</v>
+        <v>0.02884322239038912</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.06395169552738623</v>
+        <v>0.06439673247900883</v>
       </c>
     </row>
     <row r="21">
@@ -1231,31 +1231,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0875794016070621</v>
+        <v>0.09401092820420924</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.03516138944867912</v>
+        <v>0.03354596272336559</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1094872414249917</v>
+        <v>0.1102680748309331</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03886261003523516</v>
+        <v>0.03919355433172754</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.09443477792614183</v>
+        <v>0.09536257770098101</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.08783823562833661</v>
+        <v>0.08731631992246799</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.05726012898211622</v>
+        <v>0.05478767918973464</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.05858828472260742</v>
+        <v>0.05824104304615864</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.09214501741694686</v>
+        <v>0.09254070601903429</v>
       </c>
     </row>
     <row r="22">
@@ -1305,31 +1305,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02125478744760021</v>
+        <v>0.02087380427976752</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05809129431129648</v>
+        <v>0.05630651796380737</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1662203594304445</v>
+        <v>0.1641301742242794</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07059872519538239</v>
+        <v>0.06827286188221558</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0335706717714554</v>
+        <v>0.03373970985778316</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1762692444998285</v>
+        <v>0.1759430866458543</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.05476051037412224</v>
+        <v>0.05673234942046688</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04808712682293288</v>
+        <v>0.05038728224843356</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1807435548533361</v>
+        <v>0.1784833479708095</v>
       </c>
     </row>
     <row r="24">
@@ -1340,31 +1340,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07549465235093589</v>
+        <v>0.07623162802928762</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1198355813074471</v>
+        <v>0.1183125356690031</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2376757284287431</v>
+        <v>0.2362071825692635</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1323380614073484</v>
+        <v>0.1333360269676986</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.08742837152564573</v>
+        <v>0.08591521805610318</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2292560402187503</v>
+        <v>0.2299393157799756</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1004709881563693</v>
+        <v>0.1004168963631057</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.08973618875081875</v>
+        <v>0.09011119219384595</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2239532063010158</v>
+        <v>0.2241445428506729</v>
       </c>
     </row>
     <row r="25">
@@ -1394,7 +1394,7 @@
         <v>0.02035973878203713</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.04678578250453326</v>
+        <v>0.04678578250453325</v>
       </c>
       <c r="I25" s="5" t="n">
         <v>0.01699278265991985</v>
@@ -1414,31 +1414,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01127767184236873</v>
+        <v>0.01120961007590254</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01095322904463467</v>
+        <v>0.01120163088602562</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.04105499326965997</v>
+        <v>0.04073453703125983</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01461306786802217</v>
+        <v>0.01437262497095914</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01649087558858238</v>
+        <v>0.0160469377708171</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04157642490159796</v>
+        <v>0.04198735241255639</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01382473261360779</v>
+        <v>0.0136588499028152</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.01462957226251833</v>
+        <v>0.01424773078084309</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.04276575126121353</v>
+        <v>0.04246155495986137</v>
       </c>
     </row>
     <row r="27">
@@ -1449,31 +1449,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.0203188953073588</v>
+        <v>0.01968892900750232</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01873331918467006</v>
+        <v>0.01943862124025562</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.05377296798158967</v>
+        <v>0.05296961479724657</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02393786466400844</v>
+        <v>0.02346933955258838</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.02624685951449256</v>
+        <v>0.02605388389876472</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.05253224971897013</v>
+        <v>0.05265527877680524</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.02042966418565298</v>
+        <v>0.02030944204941523</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.02112335616540547</v>
+        <v>0.02064375174792035</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.05094008397988608</v>
+        <v>0.05108548229795997</v>
       </c>
     </row>
     <row r="28">
@@ -1731,20 +1731,20 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>5092</v>
+        <v>5857</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>13586</v>
+        <v>12881</v>
       </c>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>5391</v>
+        <v>5751</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>10100</v>
+        <v>11565</v>
       </c>
     </row>
     <row r="8">
@@ -1829,29 +1829,29 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>920</v>
+        <v>898</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2536</v>
+        <v>2532</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3698</v>
+        <v>3748</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>924</v>
+        <v>901</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3515</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="11">
@@ -1862,29 +1862,29 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>15211</v>
+        <v>12611</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>6723</v>
+        <v>7550</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>12806</v>
+        <v>10745</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9657</v>
+        <v>8132</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>13018</v>
+        <v>13130</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>18168</v>
+        <v>18157</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>8925</v>
+        <v>8930</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>14934</v>
+        <v>14536</v>
       </c>
     </row>
     <row r="12">
@@ -1969,31 +1969,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4682</v>
+        <v>4450</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1050</v>
+        <v>1708</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>929</v>
+        <v>965</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>4687</v>
+        <v>4584</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1842</v>
+        <v>1825</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6624</v>
+        <v>6102</v>
       </c>
     </row>
     <row r="15">
@@ -2004,31 +2004,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11049</v>
+        <v>11394</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4621</v>
+        <v>4759</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>18884</v>
+        <v>18066</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11927</v>
+        <v>12025</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8469</v>
+        <v>9207</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5779</v>
+        <v>5857</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>17551</v>
+        <v>17609</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>10145</v>
+        <v>10125</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>21155</v>
+        <v>20305</v>
       </c>
     </row>
     <row r="16">
@@ -2113,31 +2113,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1040</v>
+        <v>1066</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3118</v>
+        <v>3166</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>14366</v>
+        <v>13748</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2897</v>
+        <v>2281</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1111</v>
+        <v>1079</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10981</v>
+        <v>10790</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5169</v>
+        <v>5168</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>6303</v>
+        <v>6365</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>28143</v>
+        <v>27986</v>
       </c>
     </row>
     <row r="19">
@@ -2148,31 +2148,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9461</v>
+        <v>10298</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>15240</v>
+        <v>14625</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>33359</v>
+        <v>32591</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>12858</v>
+        <v>13441</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>11066</v>
+        <v>10704</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>23913</v>
+        <v>24338</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>18348</v>
+        <v>17854</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>21433</v>
+        <v>20523</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>51061</v>
+        <v>50539</v>
       </c>
     </row>
     <row r="20">
@@ -2257,31 +2257,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5484</v>
+        <v>5348</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5552</v>
+        <v>5565</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>24859</v>
+        <v>24626</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>7550</v>
+        <v>7630</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>16947</v>
+        <v>17189</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>10546</v>
+        <v>9740</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>16026</v>
+        <v>16181</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>46788</v>
+        <v>45744</v>
       </c>
     </row>
     <row r="23">
@@ -2292,31 +2292,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>19318</v>
+        <v>19163</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>21604</v>
+        <v>21535</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>44478</v>
+        <v>44479</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>13636</v>
+        <v>12705</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>22665</v>
+        <v>23709</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>32277</v>
+        <v>31757</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>27618</v>
+        <v>26356</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>38898</v>
+        <v>40210</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>71459</v>
+        <v>70136</v>
       </c>
     </row>
     <row r="24">
@@ -2401,31 +2401,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>9208</v>
+        <v>10231</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2091</v>
+        <v>2009</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>26532</v>
+        <v>27223</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2944</v>
+        <v>2916</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>16280</v>
+        <v>16741</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>23105</v>
+        <v>23095</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>15137</v>
+        <v>15948</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>21066</v>
+        <v>20539</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>54039</v>
+        <v>54415</v>
       </c>
     </row>
     <row r="27">
@@ -2436,31 +2436,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>27131</v>
+        <v>29123</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>11756</v>
+        <v>11215</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>44475</v>
+        <v>44792</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>13757</v>
+        <v>13874</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>35674</v>
+        <v>36024</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>38542</v>
+        <v>38313</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>38008</v>
+        <v>36367</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>41720</v>
+        <v>41473</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>77862</v>
+        <v>78196</v>
       </c>
     </row>
     <row r="28">
@@ -2545,31 +2545,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>5311</v>
+        <v>5215</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>14929</v>
+        <v>14471</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>51561</v>
+        <v>50913</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>27461</v>
+        <v>26557</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>13434</v>
+        <v>13502</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>81777</v>
+        <v>81626</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>34983</v>
+        <v>36242</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>31601</v>
+        <v>33113</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>139919</v>
+        <v>138169</v>
       </c>
     </row>
     <row r="31">
@@ -2580,31 +2580,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>18862</v>
+        <v>19047</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>30798</v>
+        <v>30406</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>73727</v>
+        <v>73271</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>51477</v>
+        <v>51865</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>34986</v>
+        <v>34381</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>106359</v>
+        <v>106676</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>64184</v>
+        <v>64149</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>58972</v>
+        <v>59218</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>173369</v>
+        <v>173517</v>
       </c>
     </row>
     <row r="32">
@@ -2689,31 +2689,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>38646</v>
+        <v>38413</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>37179</v>
+        <v>38022</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>144913</v>
+        <v>143782</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>51951</v>
+        <v>51096</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>58453</v>
+        <v>56879</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>155079</v>
+        <v>156612</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>96523</v>
+        <v>95364</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>101513</v>
+        <v>98863</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>310467</v>
+        <v>308259</v>
       </c>
     </row>
     <row r="35">
@@ -2724,31 +2724,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>69628</v>
+        <v>67470</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>63587</v>
+        <v>65981</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>189804</v>
+        <v>186969</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>85101</v>
+        <v>83436</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>93033</v>
+        <v>92349</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>195944</v>
+        <v>196403</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>142637</v>
+        <v>141798</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>146573</v>
+        <v>143245</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>369811</v>
+        <v>370866</v>
       </c>
     </row>
     <row r="36">
